--- a/PuntosPorHItos.xlsx
+++ b/PuntosPorHItos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo\Documents\GitHub\DisenioBJAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A14DD00-DC09-4862-AE74-DE8B30783C1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18750" windowHeight="6810"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entrega Hito " sheetId="1" r:id="rId1"/>
@@ -19,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -326,7 +321,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -704,6 +699,114 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -733,114 +836,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,66 +1116,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="74" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
+    </row>
+    <row r="2" spans="1:4" ht="66.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1194,448 +1189,448 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
       <c r="E28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="31"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="31"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="34"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="37"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="40"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="28"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="40"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="40"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="28"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="40"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="28"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="28"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="30"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="40"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="28"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="28"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="30"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="43"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="31"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="33"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="46"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="35"/>
+      <c r="D50" s="36"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="49"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="47"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="49"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="37"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="39"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="49"/>
-    </row>
-    <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="37"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="39"/>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="49"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="37"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="39"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="49"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="37"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="39"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="49"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="37"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="39"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="49"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="37"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="39"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="49"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="39"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="49"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="39"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="47"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="49"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="39"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="52"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="40"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="42"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>64</v>
       </c>
@@ -1643,7 +1638,7 @@
       <c r="C62" s="9"/>
       <c r="D62" s="8"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>65</v>
       </c>
@@ -1651,25 +1646,25 @@
       <c r="C63" s="11"/>
       <c r="D63" s="10"/>
     </row>
-    <row r="64" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="54"/>
-      <c r="D64" s="55"/>
-    </row>
-    <row r="65" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="44"/>
+      <c r="D64" s="45"/>
+    </row>
+    <row r="65" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="56"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="58"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="46"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="48"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>68</v>
       </c>
@@ -1677,7 +1672,7 @@
       <c r="C66" s="11"/>
       <c r="D66" s="10"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>69</v>
       </c>
@@ -1685,7 +1680,7 @@
       <c r="C67" s="9"/>
       <c r="D67" s="8"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
         <v>70</v>
       </c>
@@ -1693,7 +1688,7 @@
       <c r="C68" s="15"/>
       <c r="D68" s="14"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
         <v>71</v>
       </c>
@@ -1701,7 +1696,7 @@
       <c r="C69" s="13"/>
       <c r="D69" s="12"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
         <v>72</v>
       </c>
@@ -1709,7 +1704,7 @@
       <c r="C70" s="13"/>
       <c r="D70" s="12"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>73</v>
       </c>
@@ -1717,7 +1712,7 @@
       <c r="C71" s="13"/>
       <c r="D71" s="12"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
         <v>74</v>
       </c>
@@ -1725,7 +1720,7 @@
       <c r="C72" s="13"/>
       <c r="D72" s="12"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
         <v>75</v>
       </c>
@@ -1733,7 +1728,7 @@
       <c r="C73" s="15"/>
       <c r="D73" s="14"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>76</v>
       </c>
@@ -1741,17 +1736,17 @@
       <c r="C74" s="11"/>
       <c r="D74" s="10"/>
     </row>
-    <row r="75" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="59" t="s">
+      <c r="B75" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C75" s="60"/>
-      <c r="D75" s="61"/>
-    </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="50"/>
+      <c r="D75" s="51"/>
+    </row>
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>78</v>
       </c>
@@ -1759,7 +1754,7 @@
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>79</v>
       </c>
@@ -1767,7 +1762,7 @@
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>80</v>
       </c>
@@ -1775,7 +1770,7 @@
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>81</v>
       </c>
@@ -1783,7 +1778,7 @@
       <c r="C79" s="9"/>
       <c r="D79" s="8"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>82</v>
       </c>
@@ -1791,7 +1786,7 @@
       <c r="C80" s="11"/>
       <c r="D80" s="10"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>83</v>
       </c>
@@ -1799,7 +1794,7 @@
       <c r="C81" s="11"/>
       <c r="D81" s="10"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>84</v>
       </c>
@@ -1807,7 +1802,7 @@
       <c r="C82" s="11"/>
       <c r="D82" s="10"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>85</v>
       </c>
@@ -1815,7 +1810,7 @@
       <c r="C83" s="9"/>
       <c r="D83" s="8"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
         <v>86</v>
       </c>
@@ -1823,7 +1818,7 @@
       <c r="C84" s="13"/>
       <c r="D84" s="12"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>87</v>
       </c>
@@ -1831,7 +1826,7 @@
       <c r="C85" s="13"/>
       <c r="D85" s="12"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
         <v>88</v>
       </c>
@@ -1839,7 +1834,7 @@
       <c r="C86" s="13"/>
       <c r="D86" s="12"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
         <v>89</v>
       </c>
@@ -1847,7 +1842,7 @@
       <c r="C87" s="13"/>
       <c r="D87" s="12"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
         <v>90</v>
       </c>
@@ -1855,7 +1850,7 @@
       <c r="C88" s="13"/>
       <c r="D88" s="12"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
         <v>91</v>
       </c>
@@ -1863,7 +1858,7 @@
       <c r="C89" s="13"/>
       <c r="D89" s="12"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
         <v>92</v>
       </c>
@@ -1871,55 +1866,55 @@
       <c r="C90" s="13"/>
       <c r="D90" s="12"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B96" s="5"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="5"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="5"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="5"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="5"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="5"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="5"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B8:D39"/>
     <mergeCell ref="B40:D49"/>
     <mergeCell ref="B50:D61"/>
     <mergeCell ref="B64:D65"/>
     <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PuntosPorHItos.xlsx
+++ b/PuntosPorHItos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo\Documents\GitHub\DisenioBJAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A14DD00-DC09-4862-AE74-DE8B30783C1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1372F7-A79A-4762-B5BD-14D6B422CA32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,6 +699,36 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -806,36 +836,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:D75"/>
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,41 +1135,41 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="66.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
@@ -1193,171 +1193,171 @@
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
       <c r="E28" t="s">
         <v>30</v>
       </c>
@@ -1366,269 +1366,269 @@
       <c r="A29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="31"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="24"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="34"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="37"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="30"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="40"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="30"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="40"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="40"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="40"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="40"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="30"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="40"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="40"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="30"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="33"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="43"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="36"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="46"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="49"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="39"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="49"/>
     </row>
     <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="37"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="39"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="49"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="39"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="49"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="37"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="39"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="49"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="37"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="39"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="49"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="37"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="39"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="49"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="37"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="39"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="49"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="39"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="49"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="40"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="42"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="52"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
@@ -1650,19 +1650,19 @@
       <c r="A64" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="44"/>
-      <c r="D64" s="45"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="55"/>
     </row>
     <row r="65" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="46"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="48"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="58"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
@@ -1740,11 +1740,11 @@
       <c r="A75" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="49" t="s">
+      <c r="B75" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C75" s="50"/>
-      <c r="D75" s="51"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="61"/>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
@@ -1905,16 +1905,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B8:D39"/>
+    <mergeCell ref="B40:D49"/>
+    <mergeCell ref="B50:D61"/>
+    <mergeCell ref="B64:D65"/>
+    <mergeCell ref="B75:D75"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B8:D39"/>
-    <mergeCell ref="B40:D49"/>
-    <mergeCell ref="B50:D61"/>
-    <mergeCell ref="B64:D65"/>
-    <mergeCell ref="B75:D75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PuntosPorHItos.xlsx
+++ b/PuntosPorHItos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo\Documents\GitHub\DisenioBJAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1372F7-A79A-4762-B5BD-14D6B422CA32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F178B935-B63F-4B02-AEAB-A8F6C0876D74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,6 +699,114 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -728,114 +836,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,41 +1135,41 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" ht="66.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
@@ -1193,171 +1193,171 @@
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
       <c r="E28" t="s">
         <v>30</v>
       </c>
@@ -1366,269 +1366,269 @@
       <c r="A29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="31"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="31"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="34"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="37"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="40"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="40"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="40"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="40"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="30"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="40"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="30"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="43"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="33"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="46"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="36"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="49"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="47"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="49"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="39"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="49"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="39"/>
     </row>
     <row r="54" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="49"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="39"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="49"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="39"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="49"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="39"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="49"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="39"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="49"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="39"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="49"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="39"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="47"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="49"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="39"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="52"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="42"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
@@ -1650,19 +1650,19 @@
       <c r="A64" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="54"/>
-      <c r="D64" s="55"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="45"/>
     </row>
     <row r="65" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="56"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="58"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="48"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
@@ -1740,11 +1740,11 @@
       <c r="A75" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="59" t="s">
+      <c r="B75" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C75" s="60"/>
-      <c r="D75" s="61"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="51"/>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
@@ -1905,16 +1905,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B8:D39"/>
     <mergeCell ref="B40:D49"/>
     <mergeCell ref="B50:D61"/>
     <mergeCell ref="B64:D65"/>
     <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
